--- a/数值/C_常量.xlsx
+++ b/数值/C_常量.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>名称</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>value_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -609,6 +613,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
